--- a/OpsAndMats/8034211_ValveStation.xlsx
+++ b/OpsAndMats/8034211_ValveStation.xlsx
@@ -650,7 +650,7 @@
     <t>8027538-28</t>
   </si>
   <si>
-    <t>9011803</t>
+    <t>9010800-187</t>
   </si>
   <si>
     <t>9812001</t>
